--- a/Deliverables/12S/regions/cook/ADFG_12s_cook_speciesxsamples.xlsx
+++ b/Deliverables/12S/regions/cook/ADFG_12s_cook_speciesxsamples.xlsx
@@ -1,81 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\12S\regions\cook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E092EE-B14B-4733-86B8-714D03C15990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="absolute_abundance" sheetId="1" r:id="rId1"/>
     <sheet name="proportional_abundance" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t>LabID</t>
-  </si>
-  <si>
-    <t>Specimen.ID</t>
-  </si>
-  <si>
-    <t>Clupea pallasii</t>
-  </si>
-  <si>
-    <t>Gadus spp.</t>
-  </si>
-  <si>
-    <t>Oncorhynchus kisutch</t>
-  </si>
-  <si>
-    <t>ASV79</t>
-  </si>
-  <si>
-    <t>Oncorhynchus keta</t>
-  </si>
-  <si>
-    <t>Oncorhynchus gorbuscha</t>
-  </si>
-  <si>
-    <t>Oncorhynchus spp.</t>
-  </si>
-  <si>
-    <t>Coregonus laurettae</t>
-  </si>
-  <si>
-    <t>WADE-003-008</t>
-  </si>
-  <si>
-    <t>2017206</t>
-  </si>
-  <si>
-    <t>WADE-003-001</t>
-  </si>
-  <si>
-    <t>2023157</t>
-  </si>
-  <si>
-    <t>WADE-003-004</t>
-  </si>
-  <si>
-    <t>2023295</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +64,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +108,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,10 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,62 +351,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LabID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Specimen.ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Clupea pallasii</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gadus spp.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus kisutch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASV79</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus keta</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus gorbuscha</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus spp.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Coregonus laurettae</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WADE-003-008</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2017206</t>
+        </is>
       </c>
       <c r="C2">
         <v>0</v>
@@ -502,12 +446,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WADE-003-001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023157</t>
+        </is>
       </c>
       <c r="C3">
         <v>0</v>
@@ -534,12 +482,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WADE-003-004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023295</t>
+        </is>
       </c>
       <c r="C4">
         <v>594</v>
@@ -572,60 +524,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LabID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Specimen.ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Clupea pallasii</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gadus spp.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus kisutch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASV79</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus keta</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus gorbuscha</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Oncorhynchus spp.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Coregonus laurettae</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WADE-003-008</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2017206</t>
+        </is>
       </c>
       <c r="C2">
         <v>0</v>
@@ -637,27 +604,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.78100000000000003</v>
+        <v>0.78108</v>
       </c>
       <c r="G2">
-        <v>0.13200000000000001</v>
+        <v>0.13173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06494</v>
       </c>
       <c r="J2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>0.02226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WADE-003-001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023157</t>
+        </is>
       </c>
       <c r="C3">
         <v>0</v>
@@ -666,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.94399999999999995</v>
+        <v>0.94431</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -675,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.6000000000000001E-2</v>
+        <v>0.05569</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -684,18 +655,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WADE-003-004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023295</t>
+        </is>
       </c>
       <c r="C4">
-        <v>0.96099999999999997</v>
+        <v>0.96117</v>
       </c>
       <c r="D4">
-        <v>3.9E-2</v>
+        <v>0.03883</v>
       </c>
       <c r="E4">
         <v>0</v>
